--- a/results.xlsx
+++ b/results.xlsx
@@ -12,12 +12,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="30">
   <si>
     <t>X1</t>
   </si>
   <si>
     <t>Expected</t>
+  </si>
+  <si>
+    <t>Result 0</t>
+  </si>
+  <si>
+    <t>Best Individual: (-1.191456385923968 - ((((-3.811080926784436 + 0.762642146985204) * (-1.2022540570273952 - 3.251486562446109)) + ((2.687286578007515 * X1 ) / (-1.2022540570273952 / 3.862665569015647))) + -3.7564195517733223))</t>
+  </si>
+  <si>
+    <t>Result 1</t>
+  </si>
+  <si>
+    <t>Best Individual: ((1.194003062056069 + X1 ) * (-1.2386258763375535 + X1 ))</t>
+  </si>
+  <si>
+    <t>Result 2</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + 4.158305209152765)</t>
+  </si>
+  <si>
+    <t>Result 3</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + (0.9344461777319673 + 1.0711090182012342))</t>
+  </si>
+  <si>
+    <t>Result 4</t>
+  </si>
+  <si>
+    <t>Result 5</t>
+  </si>
+  <si>
+    <t>Result 6</t>
+  </si>
+  <si>
+    <t>Result 7</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + ((-1.2386258763375535 cos ((1.194003062056069 + -0.07754048394521718) cos -0.955569007222631)) + ((((-3.18817947361149 cos -4.848281727283416) + (-4.281714573947202 / 2.687286578007515)) * -3.0012863406133974) + -3.770649946594342)))</t>
+  </si>
+  <si>
+    <t>Result 8</t>
+  </si>
+  <si>
+    <t>Result 9</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + ((-1.2386258763375535 cos ((X1  sin (4.7240905434617115 sin X1 )) cos -0.955569007222631)) + ((((-3.18817947361149 cos -4.848281727283416) + (-4.281714573947202 / X1 )) * -3.0012863406133974) + -3.770649946594342)))</t>
+  </si>
+  <si>
+    <t>Result 10</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + ((-1.2386258763375535 cos ((-3.600481085352283 sin (3.251486562446109 / 2.040031104946417)) cos -0.955569007222631)) + ((((-3.18817947361149 cos -4.848281727283416) + (-4.281714573947202 * 2.687286578007515)) * (X1  / (-4.382624486287934 sin -4.716770272003203))) + -3.770649946594342)))</t>
+  </si>
+  <si>
+    <t>Result 11</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + (((3.3259257515585325 - 3.0049134616446977) cos ((4.8392363572324655 sin ((4.412396572263621 sin 4.412396572263621) sin -4.848281727283416)) cos (1.9523012498311036 - 4.158305209152765))) + ((3.1821043951232557 * -3.0012863406133974) + -2.5999258707997353)))</t>
+  </si>
+  <si>
+    <t>Result 12</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + ((((-3.7564195517733223 sin (-4.673936318442502 - -4.673936318442502)) / (((-4.7271541250198235 sin 4.412396572263621) sin 3.3259257515585325) cos -4.74772467741651)) cos 4.3972698769541605) + 1.4612390081390378))</t>
+  </si>
+  <si>
+    <t>Result 13</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + (((0.9340316732180876 sin (((4.989575110316384 + -3.0012863406133974) sin ((1.7101883090013716 / -4.281714573947202) cos -3.826845432505502)) cos 4.084039811171337)) cos -4.927308591921048) + (-3.770649946594342 sin (((-1.9498957637604972 - ((X1  * 3.0049134616446977) * ((-0.7119457156295175 / -1.3805916655442116) cos X1 ))) sin (-4.430104639364356 sin -4.753722121764314)) sin 4.681733866579481))))</t>
+  </si>
+  <si>
+    <t>Result 14</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + (((1.5056441799738494 sin ((1.4612390081390378 sin -4.430104639364356) cos ((2.9375409921201703 sin 2.040031104946417) sin (-2.184353008326511 cos ((3.0049134616446977 - (X1  - -1.8209127499711366)) * 3.2317659677213957))))) cos 3.732286115760754) + (-3.770649946594342 sin ((((-0.43167739887371326 - (0.762642146985204 - (X1  + -1.2022540570273952))) * -0.7119457156295175) cos (((((-4.430104639364356 + -2.217916230873498) - ((4.989575110316384 * (-1.3721239750711112 / (((X1  * -1.191456385923968) + (-3.691467351790163 + ((1.4612390081390378 cos 4.158305209152765) * 4.7240905434617115))) + -2.184353008326511))) cos (((4.333864538115979 * 4.681733866579481) + ((0.9344461777319673 + -3.643925296836187) - 1.4612390081390378)) - -1.191456385923968))) / -2.5999258707997353) * ((-2.120247454058225 + (-3.8909219216337707 sin -1.8209127499711366)) - (-3.811080926784436 - (2.9375409921201703 - 0.21301206056465816)))) sin (-1.191456385923968 / X1 ))) sin (-1.191456385923968 / -4.382624486287934)))))</t>
+  </si>
+  <si>
+    <t>Result 15</t>
+  </si>
+  <si>
+    <t>Best Individual: ((X1  * X1 ) + ((((-3.7564195517733223 sin (-4.673936318442502 - 4.158305209152765)) / (((-4.7271541250198235 sin 4.412396572263621) sin 3.3259257515585325) cos -4.74772467741651)) cos ((0.762642146985204 - (X1  / (-4.382624486287934 sin -4.430104639364356))) / -2.5999258707997353)) + 1.4612390081390378))</t>
   </si>
 </sst>
 </file>
@@ -34,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +135,16 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -64,16 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,6 +181,54 @@
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -94,6 +237,54 @@
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -102,6 +293,54 @@
       <c r="B3" t="n">
         <v>2.01</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -110,6 +349,54 @@
       <c r="B4" t="n">
         <v>2.04</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -118,6 +405,54 @@
       <c r="B5" t="n">
         <v>2.09</v>
       </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -126,6 +461,54 @@
       <c r="B6" t="n">
         <v>2.16</v>
       </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -134,6 +517,54 @@
       <c r="B7" t="n">
         <v>2.25</v>
       </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -142,6 +573,54 @@
       <c r="B8" t="n">
         <v>2.36</v>
       </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -150,6 +629,54 @@
       <c r="B9" t="n">
         <v>2.49</v>
       </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -158,6 +685,54 @@
       <c r="B10" t="n">
         <v>2.64</v>
       </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -166,6 +741,54 @@
       <c r="B11" t="n">
         <v>2.81</v>
       </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -174,6 +797,54 @@
       <c r="B12" t="n">
         <v>3.0</v>
       </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -182,6 +853,54 @@
       <c r="B13" t="n">
         <v>3.21</v>
       </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -190,6 +909,54 @@
       <c r="B14" t="n">
         <v>3.44</v>
       </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -198,6 +965,54 @@
       <c r="B15" t="n">
         <v>3.69</v>
       </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -206,6 +1021,54 @@
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -214,6 +1077,54 @@
       <c r="B17" t="n">
         <v>4.25</v>
       </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -222,6 +1133,54 @@
       <c r="B18" t="n">
         <v>4.56</v>
       </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -230,6 +1189,54 @@
       <c r="B19" t="n">
         <v>4.89</v>
       </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -238,6 +1245,54 @@
       <c r="B20" t="n">
         <v>5.24</v>
       </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -246,6 +1301,54 @@
       <c r="B21" t="n">
         <v>5.61</v>
       </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -254,6 +1357,54 @@
       <c r="B22" t="n">
         <v>6.0</v>
       </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -262,6 +1413,54 @@
       <c r="B23" t="n">
         <v>6.41</v>
       </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -270,6 +1469,54 @@
       <c r="B24" t="n">
         <v>6.84</v>
       </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -278,6 +1525,54 @@
       <c r="B25" t="n">
         <v>7.29</v>
       </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -286,6 +1581,54 @@
       <c r="B26" t="n">
         <v>7.76</v>
       </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -294,6 +1637,54 @@
       <c r="B27" t="n">
         <v>8.25</v>
       </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -302,6 +1693,54 @@
       <c r="B28" t="n">
         <v>8.76</v>
       </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -310,6 +1749,54 @@
       <c r="B29" t="n">
         <v>9.29</v>
       </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -318,6 +1805,54 @@
       <c r="B30" t="n">
         <v>9.84</v>
       </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -326,6 +1861,54 @@
       <c r="B31" t="n">
         <v>10.41</v>
       </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -334,6 +1917,54 @@
       <c r="B32" t="n">
         <v>11.0</v>
       </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -342,6 +1973,54 @@
       <c r="B33" t="n">
         <v>11.61</v>
       </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -350,6 +2029,54 @@
       <c r="B34" t="n">
         <v>12.24</v>
       </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -358,6 +2085,54 @@
       <c r="B35" t="n">
         <v>12.89</v>
       </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -366,6 +2141,54 @@
       <c r="B36" t="n">
         <v>13.56</v>
       </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -374,6 +2197,54 @@
       <c r="B37" t="n">
         <v>14.25</v>
       </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -382,6 +2253,54 @@
       <c r="B38" t="n">
         <v>14.96</v>
       </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -390,6 +2309,54 @@
       <c r="B39" t="n">
         <v>15.69</v>
       </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -398,6 +2365,54 @@
       <c r="B40" t="n">
         <v>16.44</v>
       </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -406,6 +2421,54 @@
       <c r="B41" t="n">
         <v>17.21</v>
       </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -414,6 +2477,54 @@
       <c r="B42" t="n">
         <v>18.0</v>
       </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -422,6 +2533,54 @@
       <c r="B43" t="n">
         <v>18.81</v>
       </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -430,6 +2589,54 @@
       <c r="B44" t="n">
         <v>19.64</v>
       </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -438,6 +2645,54 @@
       <c r="B45" t="n">
         <v>20.49</v>
       </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -446,6 +2701,54 @@
       <c r="B46" t="n">
         <v>21.36</v>
       </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -454,6 +2757,54 @@
       <c r="B47" t="n">
         <v>22.25</v>
       </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -462,6 +2813,54 @@
       <c r="B48" t="n">
         <v>23.16</v>
       </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -470,6 +2869,54 @@
       <c r="B49" t="n">
         <v>24.09</v>
       </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+      <c r="R49" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -478,6 +2925,54 @@
       <c r="B50" t="n">
         <v>25.04</v>
       </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -486,6 +2981,54 @@
       <c r="B51" t="n">
         <v>26.01</v>
       </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -494,6 +3037,54 @@
       <c r="B52" t="n">
         <v>27.0</v>
       </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -502,6 +3093,54 @@
       <c r="B53" t="n">
         <v>28.01</v>
       </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -510,6 +3149,54 @@
       <c r="B54" t="n">
         <v>29.04</v>
       </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -518,6 +3205,54 @@
       <c r="B55" t="n">
         <v>30.09</v>
       </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -526,6 +3261,54 @@
       <c r="B56" t="n">
         <v>31.16</v>
       </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -534,6 +3317,54 @@
       <c r="B57" t="n">
         <v>32.25</v>
       </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -542,6 +3373,54 @@
       <c r="B58" t="n">
         <v>33.36</v>
       </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R58" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -550,6 +3429,54 @@
       <c r="B59" t="n">
         <v>34.49</v>
       </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -558,6 +3485,54 @@
       <c r="B60" t="n">
         <v>35.64</v>
       </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>27</v>
+      </c>
+      <c r="R60" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -566,6 +3541,54 @@
       <c r="B61" t="n">
         <v>36.81</v>
       </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -574,6 +3597,54 @@
       <c r="B62" t="n">
         <v>38.0</v>
       </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" t="s">
+        <v>23</v>
+      </c>
+      <c r="P62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R62" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -582,6 +3653,54 @@
       <c r="B63" t="n">
         <v>39.21</v>
       </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>27</v>
+      </c>
+      <c r="R63" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -590,6 +3709,54 @@
       <c r="B64" t="n">
         <v>40.44</v>
       </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>27</v>
+      </c>
+      <c r="R64" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -598,6 +3765,54 @@
       <c r="B65" t="n">
         <v>41.69</v>
       </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R65" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -606,6 +3821,54 @@
       <c r="B66" t="n">
         <v>42.96</v>
       </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>27</v>
+      </c>
+      <c r="R66" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -614,6 +3877,54 @@
       <c r="B67" t="n">
         <v>44.25</v>
       </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -622,6 +3933,54 @@
       <c r="B68" t="n">
         <v>45.56</v>
       </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>27</v>
+      </c>
+      <c r="R68" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -630,6 +3989,54 @@
       <c r="B69" t="n">
         <v>46.89</v>
       </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>27</v>
+      </c>
+      <c r="R69" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -638,6 +4045,54 @@
       <c r="B70" t="n">
         <v>48.24</v>
       </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>27</v>
+      </c>
+      <c r="R70" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -646,6 +4101,54 @@
       <c r="B71" t="n">
         <v>49.61</v>
       </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>27</v>
+      </c>
+      <c r="R71" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -654,6 +4157,54 @@
       <c r="B72" t="n">
         <v>51.0</v>
       </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>27</v>
+      </c>
+      <c r="R72" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -662,6 +4213,54 @@
       <c r="B73" t="n">
         <v>52.41</v>
       </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>27</v>
+      </c>
+      <c r="R73" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -670,6 +4269,54 @@
       <c r="B74" t="n">
         <v>53.84</v>
       </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>27</v>
+      </c>
+      <c r="R74" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -678,6 +4325,54 @@
       <c r="B75" t="n">
         <v>55.29</v>
       </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>27</v>
+      </c>
+      <c r="R75" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -686,6 +4381,54 @@
       <c r="B76" t="n">
         <v>56.76</v>
       </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>27</v>
+      </c>
+      <c r="R76" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -694,6 +4437,54 @@
       <c r="B77" t="n">
         <v>58.25</v>
       </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>27</v>
+      </c>
+      <c r="R77" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -702,6 +4493,54 @@
       <c r="B78" t="n">
         <v>59.76</v>
       </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>27</v>
+      </c>
+      <c r="R78" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -710,6 +4549,54 @@
       <c r="B79" t="n">
         <v>61.29</v>
       </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>27</v>
+      </c>
+      <c r="R79" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -718,6 +4605,54 @@
       <c r="B80" t="n">
         <v>62.84</v>
       </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>27</v>
+      </c>
+      <c r="R80" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -726,6 +4661,54 @@
       <c r="B81" t="n">
         <v>64.41</v>
       </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>27</v>
+      </c>
+      <c r="R81" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -734,6 +4717,54 @@
       <c r="B82" t="n">
         <v>66.0</v>
       </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>27</v>
+      </c>
+      <c r="R82" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -742,6 +4773,54 @@
       <c r="B83" t="n">
         <v>67.61</v>
       </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O83" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>27</v>
+      </c>
+      <c r="R83" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -750,6 +4829,54 @@
       <c r="B84" t="n">
         <v>69.24</v>
       </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>27</v>
+      </c>
+      <c r="R84" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -758,6 +4885,54 @@
       <c r="B85" t="n">
         <v>70.89</v>
       </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>27</v>
+      </c>
+      <c r="R85" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -766,6 +4941,54 @@
       <c r="B86" t="n">
         <v>72.56</v>
       </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" t="s">
+        <v>23</v>
+      </c>
+      <c r="P86" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>27</v>
+      </c>
+      <c r="R86" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -774,6 +4997,54 @@
       <c r="B87" t="n">
         <v>74.25</v>
       </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87" t="s">
+        <v>21</v>
+      </c>
+      <c r="O87" t="s">
+        <v>23</v>
+      </c>
+      <c r="P87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>27</v>
+      </c>
+      <c r="R87" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -782,6 +5053,54 @@
       <c r="B88" t="n">
         <v>75.96</v>
       </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>27</v>
+      </c>
+      <c r="R88" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -790,6 +5109,54 @@
       <c r="B89" t="n">
         <v>77.69</v>
       </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" t="s">
+        <v>23</v>
+      </c>
+      <c r="P89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>27</v>
+      </c>
+      <c r="R89" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -798,6 +5165,54 @@
       <c r="B90" t="n">
         <v>79.44</v>
       </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>27</v>
+      </c>
+      <c r="R90" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -806,6 +5221,54 @@
       <c r="B91" t="n">
         <v>81.21</v>
       </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" t="s">
+        <v>23</v>
+      </c>
+      <c r="P91" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>27</v>
+      </c>
+      <c r="R91" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -814,6 +5277,54 @@
       <c r="B92" t="n">
         <v>83.0</v>
       </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92" t="s">
+        <v>23</v>
+      </c>
+      <c r="P92" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>27</v>
+      </c>
+      <c r="R92" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -822,6 +5333,54 @@
       <c r="B93" t="n">
         <v>84.81</v>
       </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" t="s">
+        <v>23</v>
+      </c>
+      <c r="P93" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>27</v>
+      </c>
+      <c r="R93" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -830,6 +5389,54 @@
       <c r="B94" t="n">
         <v>86.64</v>
       </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>27</v>
+      </c>
+      <c r="R94" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -838,6 +5445,54 @@
       <c r="B95" t="n">
         <v>88.49</v>
       </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O95" t="s">
+        <v>23</v>
+      </c>
+      <c r="P95" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>27</v>
+      </c>
+      <c r="R95" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -846,6 +5501,54 @@
       <c r="B96" t="n">
         <v>90.36</v>
       </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" t="s">
+        <v>9</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" t="s">
+        <v>21</v>
+      </c>
+      <c r="O96" t="s">
+        <v>23</v>
+      </c>
+      <c r="P96" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>27</v>
+      </c>
+      <c r="R96" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -854,6 +5557,54 @@
       <c r="B97" t="n">
         <v>92.25</v>
       </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" t="s">
+        <v>9</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" t="s">
+        <v>21</v>
+      </c>
+      <c r="O97" t="s">
+        <v>23</v>
+      </c>
+      <c r="P97" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>27</v>
+      </c>
+      <c r="R97" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -862,6 +5613,54 @@
       <c r="B98" t="n">
         <v>94.16</v>
       </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>9</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" t="s">
+        <v>21</v>
+      </c>
+      <c r="O98" t="s">
+        <v>23</v>
+      </c>
+      <c r="P98" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>27</v>
+      </c>
+      <c r="R98" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -870,6 +5669,54 @@
       <c r="B99" t="n">
         <v>96.09</v>
       </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" t="s">
+        <v>9</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" t="s">
+        <v>21</v>
+      </c>
+      <c r="O99" t="s">
+        <v>23</v>
+      </c>
+      <c r="P99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>27</v>
+      </c>
+      <c r="R99" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -878,6 +5725,54 @@
       <c r="B100" t="n">
         <v>98.04</v>
       </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" t="s">
+        <v>21</v>
+      </c>
+      <c r="O100" t="s">
+        <v>23</v>
+      </c>
+      <c r="P100" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -886,6 +5781,54 @@
       <c r="B101" t="n">
         <v>100.01</v>
       </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" t="s">
+        <v>21</v>
+      </c>
+      <c r="O101" t="s">
+        <v>23</v>
+      </c>
+      <c r="P101" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>27</v>
+      </c>
+      <c r="R101" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -893,6 +5836,54 @@
       </c>
       <c r="B102" t="n">
         <v>102.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" t="s">
+        <v>9</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" t="s">
+        <v>21</v>
+      </c>
+      <c r="O102" t="s">
+        <v>23</v>
+      </c>
+      <c r="P102" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>27</v>
+      </c>
+      <c r="R102" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
